--- a/Spring2023_program/round_1_master.xlsx
+++ b/Spring2023_program/round_1_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saunders/Documents/BU_grad_trios/Spring2023_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD02EAB-8F35-5344-896E-6118F7C7B7BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F961599E-1940-804E-96AC-73A9404506E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="4220" windowWidth="27240" windowHeight="16440" xr2:uid="{0E29D9AC-4B62-E64E-B308-BAD40564F676}"/>
   </bookViews>
@@ -1047,9 +1047,6 @@
     <t>msusoeff@bu.edu</t>
   </si>
   <si>
-    <t>Dilara √áaygara</t>
-  </si>
-  <si>
     <t>Dilara</t>
   </si>
   <si>
@@ -3070,6 +3067,9 @@
   </si>
   <si>
     <t>department</t>
+  </si>
+  <si>
+    <t>Dilara Caygara</t>
   </si>
 </sst>
 </file>
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1004FE7-920E-E142-B517-7E564CF71EA5}">
   <dimension ref="A1:G331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3448,22 +3448,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1" t="s">
         <v>1009</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1010</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1011</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1012</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1013</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5815,16 +5815,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D104" s="2">
         <v>57631594</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>13</v>
@@ -5838,16 +5838,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D105" s="2">
         <v>67421497</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>8</v>
@@ -5861,16 +5861,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="D106" s="2">
         <v>34943665</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>101</v>
@@ -5884,16 +5884,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D107" s="2">
         <v>76193905</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>13</v>
@@ -5907,22 +5907,22 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="D108" s="2">
         <v>98180004</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5930,22 +5930,22 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="D109" s="2">
         <v>6301019</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5953,16 +5953,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="D110" s="2">
         <v>70315897</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>8</v>
@@ -5976,16 +5976,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D111" s="2">
         <v>68590291</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>8</v>
@@ -5999,7 +5999,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>183</v>
@@ -6008,7 +6008,7 @@
         <v>91586290</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>108</v>
@@ -6022,16 +6022,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D113" s="2">
         <v>46864967</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>83</v>
@@ -6045,7 +6045,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>191</v>
@@ -6054,7 +6054,7 @@
         <v>5599921</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>83</v>
@@ -6068,16 +6068,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D115" s="2">
         <v>85801279</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>4</v>
@@ -6092,13 +6092,13 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D116" s="2">
         <v>70997378</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>13</v>
@@ -6112,16 +6112,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="D117" s="2">
         <v>13663632</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>8</v>
@@ -6135,7 +6135,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>331</v>
@@ -6144,7 +6144,7 @@
         <v>75081973</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>13</v>
@@ -6159,13 +6159,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D119" s="2">
         <v>86685449</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>8</v>
@@ -6179,16 +6179,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D120" s="2">
         <v>82217163</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
@@ -6202,16 +6202,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D121" s="2">
         <v>12254727</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>4</v>
@@ -6225,16 +6225,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D122" s="2">
         <v>10769179</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
@@ -6248,16 +6248,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D123" s="2">
         <v>94447714</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>4</v>
@@ -6271,16 +6271,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D124" s="2">
         <v>57122355</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>4</v>
@@ -6294,16 +6294,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D125" s="2">
         <v>90332175</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>13</v>
@@ -6317,16 +6317,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D126" s="2">
         <v>2945217</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>13</v>
@@ -6340,16 +6340,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D127" s="2">
         <v>85326097</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>34</v>
@@ -6363,16 +6363,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D128" s="2">
         <v>1358968</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>13</v>
@@ -6386,16 +6386,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="D129" s="2">
         <v>81275467</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>8</v>
@@ -6409,16 +6409,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D130" s="2">
         <v>88889450</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>101</v>
@@ -6432,16 +6432,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D131" s="2">
         <v>3479511</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>13</v>
@@ -6455,16 +6455,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D132" s="2">
         <v>75475561</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>8</v>
@@ -6478,16 +6478,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D133" s="2">
         <v>36142987</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>34</v>
@@ -6501,22 +6501,22 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D134" s="2">
         <v>26311098</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6524,7 +6524,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>224</v>
@@ -6533,7 +6533,7 @@
         <v>88960928</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>34</v>
@@ -6547,16 +6547,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="D136" s="2">
         <v>1123904</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>8</v>
@@ -6570,16 +6570,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="D137" s="2">
         <v>17138082</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>34</v>
@@ -6593,16 +6593,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="D138" s="2">
         <v>54429772</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>8</v>
@@ -6616,16 +6616,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D139" s="2">
         <v>11940285</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>8</v>
@@ -6639,16 +6639,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D140" s="2">
         <v>71934169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>13</v>
@@ -6662,16 +6662,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D141" s="2">
         <v>71168520</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>34</v>
@@ -6685,7 +6685,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>155</v>
@@ -6694,7 +6694,7 @@
         <v>71725396</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>8</v>
@@ -6708,16 +6708,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D143" s="2">
         <v>41641725</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>303</v>
@@ -6731,16 +6731,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="D144" s="2">
         <v>6390534</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>4</v>
@@ -6755,13 +6755,13 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D145" s="2">
         <v>48894665</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>13</v>
@@ -6775,22 +6775,22 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="D146" s="2">
         <v>30834796</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -6798,22 +6798,22 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="D147" s="2">
         <v>9759505</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -6821,16 +6821,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D148" s="2">
         <v>88616137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>34</v>
@@ -6844,16 +6844,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D149" s="2">
         <v>37555401</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>13</v>
@@ -6867,16 +6867,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="D150" s="2">
         <v>78047914</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>34</v>
@@ -6890,16 +6890,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="D151" s="2">
         <v>7856293</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>8</v>
@@ -6913,16 +6913,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="D152" s="2">
         <v>10449426</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>8</v>
@@ -6936,16 +6936,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D153" s="2">
         <v>45461974</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>34</v>
@@ -6959,16 +6959,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D154" s="2">
         <v>63852394</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>34</v>
@@ -6982,16 +6982,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D155" s="2">
         <v>60227166</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>8</v>
@@ -7005,7 +7005,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>301</v>
@@ -7014,7 +7014,7 @@
         <v>92608474</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>34</v>
@@ -7028,16 +7028,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="D157" s="2">
         <v>76240353</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>4</v>
@@ -7051,16 +7051,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="D158" s="2">
         <v>77711458</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>127</v>
@@ -7074,22 +7074,22 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D159" s="2">
         <v>13853217</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -7097,16 +7097,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="D160" s="2">
         <v>68134558</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>34</v>
@@ -7120,16 +7120,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="D161" s="2">
         <v>8463982</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>34</v>
@@ -7143,16 +7143,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D162" s="2">
         <v>87274255</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>8</v>
@@ -7166,16 +7166,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="D163" s="2">
         <v>623024845</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>8</v>
@@ -7189,22 +7189,22 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="D164" s="2">
         <v>92180154</v>
       </c>
       <c r="E164" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -7212,16 +7212,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="D165" s="2">
         <v>56374762</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>8</v>
@@ -7235,16 +7235,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>8</v>
@@ -7258,16 +7258,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="D167" s="2">
         <v>54526080</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>8</v>
@@ -7281,22 +7281,22 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="D168" s="2">
         <v>21893656</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="G168" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -7304,16 +7304,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="D169" s="2">
         <v>88955889</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>8</v>
@@ -7327,16 +7327,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="D170" s="2">
         <v>8519034</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>303</v>
@@ -7350,16 +7350,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D171" s="2">
         <v>78484982</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>303</v>
@@ -7373,16 +7373,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="D172" s="2">
         <v>9801011</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>122</v>
@@ -7396,16 +7396,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D173" s="2">
         <v>12652644</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>34</v>
@@ -7419,16 +7419,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="D174" s="2">
         <v>52157235</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>8</v>
@@ -7442,16 +7442,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="D175" s="2">
         <v>71581116</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>8</v>
@@ -7465,16 +7465,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="D176" s="2">
         <v>93542629</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>8</v>
@@ -7488,16 +7488,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="D177" s="2">
         <v>18185430</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>34</v>
@@ -7511,16 +7511,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="D178" s="2">
         <v>86289151</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>13</v>
@@ -7534,16 +7534,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="D179" s="2">
         <v>78329245</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>8</v>
@@ -7557,16 +7557,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="D180" s="2">
         <v>19890012</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>34</v>
@@ -7580,16 +7580,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="D181" s="2">
         <v>86905174</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>13</v>
@@ -7603,16 +7603,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="D182" s="2">
         <v>38532469</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>8</v>
@@ -7626,16 +7626,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D183" s="2">
         <v>42144744</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>8</v>
@@ -7649,7 +7649,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>158</v>
@@ -7658,7 +7658,7 @@
         <v>13947709</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -7672,16 +7672,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="D185" s="2">
         <v>17292405</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>8</v>
@@ -7695,16 +7695,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="D186" s="2">
         <v>10993864</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>34</v>
@@ -7718,16 +7718,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="D187" s="2">
         <v>60050504</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>34</v>
@@ -7741,14 +7741,14 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>108</v>
@@ -7762,16 +7762,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="D189" s="2">
         <v>33399427</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>8</v>
@@ -7785,7 +7785,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>75</v>
@@ -7794,7 +7794,7 @@
         <v>99188492</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>8</v>
@@ -7808,16 +7808,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="D191" s="2">
         <v>48865559</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>13</v>
@@ -7831,16 +7831,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D192" s="2">
         <v>13177812</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>34</v>
@@ -7854,16 +7854,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="D193" s="2">
         <v>56609824</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>34</v>
@@ -7877,16 +7877,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D194" s="2">
         <v>2229168</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>4</v>
@@ -7900,16 +7900,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="D195" s="2">
         <v>57193951</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>34</v>
@@ -7923,16 +7923,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D196" s="2">
         <v>60749518</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>34</v>
@@ -7947,13 +7947,13 @@
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D197" s="2">
         <v>31509516</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>4</v>
@@ -7967,16 +7967,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="D198" s="2">
         <v>98345155</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>13</v>
@@ -7990,16 +7990,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D199" s="2">
         <v>7046454</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>34</v>
@@ -8013,16 +8013,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="D200" s="2">
         <v>1305380</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>34</v>
@@ -8036,16 +8036,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D201" s="2">
         <v>72418396</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>34</v>
@@ -8059,16 +8059,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="D202" s="2">
         <v>61160628</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>8</v>
@@ -8082,16 +8082,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="D203" s="2">
         <v>38366338</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>8</v>
@@ -8105,16 +8105,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="D204" s="2">
         <v>25978414</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>34</v>
@@ -8128,16 +8128,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="D205" s="2">
         <v>77222659</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>8</v>
@@ -8151,7 +8151,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>155</v>
@@ -8160,7 +8160,7 @@
         <v>38057241</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>8</v>
@@ -8174,16 +8174,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="D207" s="2">
         <v>73848659</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>34</v>
@@ -8197,16 +8197,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D208" s="2">
         <v>50576764</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>4</v>
@@ -8220,16 +8220,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="D209" s="2">
         <v>76804636</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>8</v>
@@ -8243,16 +8243,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="D210" s="2">
         <v>55173487</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>4</v>
@@ -8266,16 +8266,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="D211" s="2">
         <v>43766257</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>13</v>
@@ -8289,16 +8289,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D212" s="2">
         <v>25314384</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>34</v>
@@ -8312,16 +8312,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="D213" s="2">
         <v>297553354</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>101</v>
@@ -8335,16 +8335,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D214" s="2">
         <v>18356467</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>13</v>
@@ -8358,16 +8358,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="D215" s="2">
         <v>29168211</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>13</v>
@@ -8381,16 +8381,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="D216" s="2">
         <v>35740812</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>34</v>
@@ -8404,16 +8404,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="D217" s="2">
         <v>8390514</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>4</v>
@@ -8427,16 +8427,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D218" s="2">
         <v>32581362</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>8</v>
@@ -8450,22 +8450,22 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="D219" s="2">
         <v>6886967</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -8473,16 +8473,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="D220" s="2">
         <v>76233090</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>8</v>
@@ -8496,16 +8496,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="D221" s="2">
         <v>55006554</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>83</v>
@@ -8519,16 +8519,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D222" s="2">
         <v>63437935</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>101</v>
@@ -8542,16 +8542,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="D223" s="2">
         <v>27136704</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>101</v>
@@ -8565,16 +8565,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D224" s="2">
         <v>14202533</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>8</v>
@@ -8588,22 +8588,22 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="D225" s="2">
         <v>10515972</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F225" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -8611,22 +8611,22 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D226" s="2">
         <v>80884705</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -8634,16 +8634,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="D227" s="2">
         <v>92556300</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>4</v>
@@ -8657,16 +8657,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="D228" s="2">
         <v>27652521</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>8</v>
@@ -8680,16 +8680,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="D229" s="2">
         <v>90747427</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>8</v>
@@ -8703,22 +8703,22 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="D230" s="2">
         <v>4933263</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -8726,16 +8726,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D231" s="2">
         <v>52674367</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>8</v>
@@ -8749,16 +8749,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="D232" s="2">
         <v>81925069</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>34</v>
@@ -8772,7 +8772,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>301</v>
@@ -8781,13 +8781,13 @@
         <v>79210137</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -8795,16 +8795,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="D234" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="E234" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>8</v>
@@ -8818,16 +8818,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D235" s="2">
         <v>74287651</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>8</v>
@@ -8841,16 +8841,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="D236" s="2">
         <v>87995138</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>8</v>
@@ -8864,16 +8864,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="D237" s="2">
         <v>32290220</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>8</v>
@@ -8887,16 +8887,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="D238" s="2">
         <v>47665615</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>8</v>
@@ -8910,16 +8910,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="D239" s="2">
         <v>1289956</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>83</v>
@@ -8933,16 +8933,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="D240" s="2">
         <v>43843620</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>34</v>
@@ -8956,14 +8956,14 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>8</v>
@@ -8977,16 +8977,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="D242" s="2">
         <v>93872849</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>13</v>
@@ -9000,16 +9000,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="D243" s="2">
         <v>62900535</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>8</v>
@@ -9023,16 +9023,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="D244" s="2">
         <v>625250</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>8</v>
@@ -9046,16 +9046,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D245" s="2">
         <v>13148463</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>8</v>
@@ -9069,16 +9069,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="D246" s="2">
         <v>12677412</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>8</v>
@@ -9092,22 +9092,22 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="D247" s="2">
         <v>8543767</v>
       </c>
       <c r="E247" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -9115,16 +9115,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="D248" s="2">
         <v>35505831</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>303</v>
@@ -9138,16 +9138,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="D249" s="2">
         <v>38751312</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>8</v>
@@ -9161,22 +9161,22 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="D250" s="2">
         <v>32812211</v>
       </c>
       <c r="E250" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -9184,16 +9184,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="D251" s="2">
         <v>10150256</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>13</v>
@@ -9207,16 +9207,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="D252" s="2">
         <v>19006671</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>13</v>
@@ -9230,16 +9230,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="D253" s="2">
         <v>17746113</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>8</v>
@@ -9253,16 +9253,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="D254" s="2">
         <v>43020849</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>34</v>
@@ -9276,16 +9276,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="D255" s="2">
         <v>749613</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>4</v>
@@ -9299,16 +9299,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="D256" s="2">
         <v>59069308</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>34</v>
@@ -9322,16 +9322,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D257" s="2">
         <v>5834703</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>8</v>
@@ -9345,16 +9345,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="D258" s="2">
         <v>48349084</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>34</v>
@@ -9368,16 +9368,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="D259" s="2">
         <v>36142987</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>34</v>
@@ -9391,16 +9391,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="D260" s="2">
         <v>28517250</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>8</v>
@@ -9414,16 +9414,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="D261" s="2">
         <v>66672490</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>34</v>
@@ -9438,19 +9438,19 @@
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D262" s="2">
         <v>55105725</v>
       </c>
       <c r="E262" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -9458,16 +9458,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="D263" s="2">
         <v>81422274</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>8</v>
@@ -9481,16 +9481,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="D264" s="2">
         <v>80652667</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>108</v>
@@ -9504,16 +9504,16 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="D265" s="2">
         <v>72397994</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>13</v>
@@ -9527,16 +9527,16 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="D266" s="2">
         <v>8917267</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>13</v>
@@ -9550,16 +9550,16 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>825</v>
       </c>
       <c r="D267" s="2">
         <v>56922420</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>108</v>
@@ -9573,7 +9573,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>183</v>
@@ -9582,7 +9582,7 @@
         <v>61138344</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>34</v>
@@ -9596,22 +9596,22 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="D269" s="2">
         <v>87698219</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -9619,16 +9619,16 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="D270" s="2">
         <v>86009043</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>8</v>
@@ -9642,22 +9642,22 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="D271" s="2">
         <v>5326680</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F271" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -9665,16 +9665,16 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="D272" s="2">
         <v>74078707</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>13</v>
@@ -9688,7 +9688,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>224</v>
@@ -9697,7 +9697,7 @@
         <v>87357028</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>8</v>
@@ -9711,16 +9711,16 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="D274" s="2">
         <v>96858699</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>8</v>
@@ -9734,16 +9734,16 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="D275" s="2">
         <v>90605046</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>13</v>
@@ -9757,22 +9757,22 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="D276" s="2">
         <v>83046225</v>
       </c>
       <c r="E276" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -9780,16 +9780,16 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="D277" s="2">
         <v>97290508</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>4</v>
@@ -9803,16 +9803,16 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="D278" s="2">
         <v>92538111</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>34</v>
@@ -9826,16 +9826,16 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="D279" s="2">
         <v>91366780</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>13</v>
@@ -9850,13 +9850,13 @@
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D280" s="2">
         <v>34683394</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>4</v>
@@ -9870,7 +9870,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>331</v>
@@ -9879,7 +9879,7 @@
         <v>89517361</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>8</v>
@@ -9893,16 +9893,16 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="D282" s="2">
         <v>94373068</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>101</v>
@@ -9916,16 +9916,16 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="D283" s="2">
         <v>74582680</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>34</v>
@@ -9939,16 +9939,16 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>873</v>
       </c>
       <c r="D284" s="2">
         <v>84636634</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>8</v>
@@ -9962,16 +9962,16 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="D285" s="2">
         <v>96785582</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>83</v>
@@ -9985,16 +9985,16 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="D286" s="2">
         <v>98678462</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>8</v>
@@ -10008,16 +10008,16 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="D287" s="2">
         <v>83503218</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>8</v>
@@ -10031,16 +10031,16 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="D288" s="2">
         <v>82240851</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>8</v>
@@ -10054,16 +10054,16 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="D289" s="2">
         <v>94052064</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>8</v>
@@ -10077,16 +10077,16 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="D290" s="2">
         <v>48334954</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>8</v>
@@ -10100,16 +10100,16 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="D291" s="2">
         <v>12789689</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>34</v>
@@ -10123,16 +10123,16 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="D292" s="2">
         <v>87524798</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>8</v>
@@ -10146,7 +10146,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>194</v>
@@ -10155,7 +10155,7 @@
         <v>29124967</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>4</v>
@@ -10169,7 +10169,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>32</v>
@@ -10178,7 +10178,7 @@
         <v>93855497</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>8</v>
@@ -10192,16 +10192,16 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="D295" s="2">
         <v>52759930</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>4</v>
@@ -10215,16 +10215,16 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="D296" s="2">
         <v>38523676</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>13</v>
@@ -10238,16 +10238,16 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="D297" s="2">
         <v>71940199</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>8</v>
@@ -10261,16 +10261,16 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D298" s="2">
         <v>87566215</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>8</v>
@@ -10284,16 +10284,16 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="D299" s="2">
         <v>50745838</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>13</v>
@@ -10307,22 +10307,22 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="D300" s="2">
         <v>47007561</v>
       </c>
       <c r="E300" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="F300" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>920</v>
-      </c>
       <c r="G300" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -10330,16 +10330,16 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D301" s="2">
         <v>96173121</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>4</v>
@@ -10353,16 +10353,16 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="D302" s="2">
         <v>96065789</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>8</v>
@@ -10376,16 +10376,16 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="D303" s="2">
         <v>94753435</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>8</v>
@@ -10399,16 +10399,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="D304" s="2">
         <v>55897060</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>34</v>
@@ -10422,7 +10422,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>28</v>
@@ -10431,7 +10431,7 @@
         <v>44883229</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>8</v>
@@ -10445,16 +10445,16 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="D306" s="2">
         <v>70185847</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>13</v>
@@ -10468,16 +10468,16 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="D307" s="2">
         <v>64565176</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>34</v>
@@ -10491,16 +10491,16 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D308" s="2">
         <v>47312580</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>8</v>
@@ -10514,16 +10514,16 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="D309" s="2">
         <v>49392193</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>13</v>
@@ -10537,16 +10537,16 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D310" s="2">
         <v>26110523</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>8</v>
@@ -10560,22 +10560,22 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="D311" s="2">
         <v>64574239</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -10583,16 +10583,16 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>951</v>
       </c>
       <c r="D312" s="2">
         <v>82567886</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>13</v>
@@ -10606,16 +10606,16 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="D313" s="2">
         <v>57424891</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>8</v>
@@ -10629,16 +10629,16 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="D314" s="2">
         <v>74244135</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>8</v>
@@ -10652,16 +10652,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="D315" s="2">
         <v>97970297</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>4</v>
@@ -10675,16 +10675,16 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="D316" s="2">
         <v>85652428</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>34</v>
@@ -10698,16 +10698,16 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="D317" s="2">
         <v>87589436</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>8</v>
@@ -10721,16 +10721,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="D318" s="2">
         <v>52877984</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>8</v>
@@ -10744,16 +10744,16 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="D319" s="2">
         <v>8740830</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>34</v>
@@ -10767,16 +10767,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>975</v>
       </c>
       <c r="D320" s="2">
         <v>28149952</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>13</v>
@@ -10790,16 +10790,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="D321" s="2">
         <v>68453004</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>13</v>
@@ -10813,16 +10813,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="D322" s="2">
         <v>57482158</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>34</v>
@@ -10836,16 +10836,16 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="D323" s="2">
         <v>54526080</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>8</v>
@@ -10859,16 +10859,16 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="D324" s="2">
         <v>5220894</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>8</v>
@@ -10882,22 +10882,22 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D325" s="2">
         <v>94050273</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -10905,16 +10905,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="D326" s="2">
         <v>98411692</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>13</v>
@@ -10928,16 +10928,16 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="D327" s="2">
         <v>90511338</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>4</v>
@@ -10951,16 +10951,16 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D328" s="2">
         <v>97892401</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>34</v>
@@ -10974,16 +10974,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="D329" s="2">
         <v>19478641</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>4</v>
@@ -10997,16 +10997,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="D330" s="2">
         <v>7579598</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>13</v>
@@ -11020,16 +11020,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="D331" s="2">
         <v>22820240</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>8</v>
